--- a/PlannerOpenXML/Resources/planner.xlsx
+++ b/PlannerOpenXML/Resources/planner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\Repos\PlannerOpenXML\PlannerOpenXML\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D12EF7C-3550-4C98-8BC4-9ED4242BDBAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11616480-A1F1-4EA8-B84A-BE20A72EEFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -417,10 +417,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="3">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -778,13 +778,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB08E60-DE0C-42E4-BCB6-90C232AA7AC7}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="141" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/PlannerOpenXML/Resources/planner.xlsx
+++ b/PlannerOpenXML/Resources/planner.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\Repos\PlannerOpenXML\PlannerOpenXML\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11616480-A1F1-4EA8-B84A-BE20A72EEFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1D0212-7676-41A7-B295-281280F79D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planner" sheetId="3" r:id="rId1"/>
@@ -783,7 +783,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" zoomScaleSheetLayoutView="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
   <sheetData/>

--- a/PlannerOpenXML/Resources/planner.xlsx
+++ b/PlannerOpenXML/Resources/planner.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\Repos\PlannerOpenXML\PlannerOpenXML\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna Mowinska\source\repos\PlannerOpenXML\PlannerOpenXML\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1D0212-7676-41A7-B295-281280F79D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3C3CC4-BFC1-4550-9C1D-5133D439EB77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1470" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planner" sheetId="3" r:id="rId1"/>
@@ -33,33 +33,37 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>Januar 2024</t>
   </si>
   <si>
-    <t>1 Mo</t>
-  </si>
-  <si>
-    <t>6 Sa</t>
-  </si>
-  <si>
-    <t>7 So</t>
-  </si>
-  <si>
     <t>Month</t>
   </si>
   <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>Saturday</t>
-  </si>
-  <si>
-    <t>Sunday</t>
-  </si>
-  <si>
     <t>Milestone</t>
   </si>
   <si>
@@ -87,9 +91,6 @@
     <t>2: Women's Day</t>
   </si>
   <si>
-    <t>1&amp;2: Women's Day</t>
-  </si>
-  <si>
     <t>.</t>
   </si>
   <si>
@@ -103,70 +104,90 @@
   </si>
   <si>
     <t>Row1 Height</t>
+  </si>
+  <si>
+    <t>Column4 Width</t>
+  </si>
+  <si>
+    <t>Day of week</t>
+  </si>
+  <si>
+    <t>Day of month</t>
+  </si>
+  <si>
+    <t>Saturday day of month</t>
+  </si>
+  <si>
+    <t>Sunday day of month</t>
+  </si>
+  <si>
+    <t>Saturday day of week</t>
+  </si>
+  <si>
+    <t>Sunday day of week</t>
+  </si>
+  <si>
+    <t>Sa</t>
+  </si>
+  <si>
+    <t>Su</t>
+  </si>
+  <si>
+    <t>Mo</t>
+  </si>
+  <si>
+    <t>DayRow Height</t>
+  </si>
+  <si>
+    <t>Row2 Height</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Footer2RowHeight</t>
+  </si>
+  <si>
+    <t>GERMANY</t>
+  </si>
+  <si>
+    <t>Footer1</t>
+  </si>
+  <si>
+    <t>Footer2</t>
+  </si>
+  <si>
+    <t>Corsol</t>
+  </si>
+  <si>
+    <t>Footer0</t>
+  </si>
+  <si>
+    <t>Footer0RowHeigt</t>
+  </si>
+  <si>
+    <t>Footer1RowHeight</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="20"/>
       <name val="Aptos Narrow"/>
     </font>
     <font>
-      <b/>
-      <sz val="25"/>
-      <color rgb="FFBCBC0D"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="20"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="30"/>
-      <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="3" tint="0.24994659260841701"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="1" tint="0.34998626667073579"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -176,20 +197,96 @@
     </font>
     <font>
       <b/>
-      <sz val="8"/>
-      <color rgb="FF009900"/>
+      <sz val="55"/>
+      <color rgb="FF474747"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
     <font>
+      <sz val="35"/>
+      <color rgb="FF080A87"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="35"/>
+      <color rgb="FF474747"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="8"/>
-      <color rgb="FF660066"/>
+      <sz val="230"/>
+      <color rgb="FF080A87"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="100"/>
+      <color rgb="FF080A87"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color rgb="FF080A87"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color rgb="FF474747"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="80"/>
+      <color rgb="FF080A87"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="80"/>
+      <color rgb="FF474747"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="55"/>
+      <color rgb="FFFFD5D5"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF080A87"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,106 +295,63 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB2FF66"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB583B5"/>
+        <fgColor rgb="FF080A87"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC0CB"/>
+        <fgColor rgb="FFFFD5D5"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
+        <fgColor rgb="FFB4C5E4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFADADAD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C5E4"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <gradientFill>
         <stop position="0">
-          <color rgb="FFB2FF66"/>
+          <color rgb="FFB4C5E4"/>
         </stop>
         <stop position="1">
-          <color rgb="FFB583B5"/>
+          <color rgb="FFFFD5D5"/>
         </stop>
       </gradientFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.24994659260841701"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39994506668294322"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF9966"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0"/>
-      </left>
-      <right style="thick">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color theme="0"/>
-      </top>
-      <bottom style="thick">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -318,136 +372,262 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="medium">
+        <color theme="2"/>
+      </top>
+      <bottom style="medium">
         <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="16">
+  <cellStyleXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="6" borderId="6">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="5" borderId="6">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="2">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="5">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="5" borderId="0">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="5" borderId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="0">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4">
+      <alignment horizontal="left"/>
+    </xf>
+  </cellStyleXfs>
+  <cellXfs count="24">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="11" fillId="6" borderId="6" xfId="4">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="6">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="4">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="6">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="7">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="8">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="7">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="8">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="10">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="11">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="9">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="12">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="13">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="14">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="15">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="2">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="11">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="9">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="13">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="14">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="3">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="5" borderId="6" xfId="5">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="16">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="17">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="5" xfId="15">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="3">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="18">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="19">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="5" borderId="0" xfId="20">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="5" borderId="0" xfId="21">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="0" xfId="22">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" xfId="12">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="16">
+  <cellStyles count="24">
     <cellStyle name="Default_Bottom" xfId="6" xr:uid="{14CE7087-4BAF-4DD0-8651-9EDC4F9B40C3}"/>
     <cellStyle name="Default_Top" xfId="10" xr:uid="{024B33E8-7229-45A9-993A-D99DFD64D4B3}"/>
+    <cellStyle name="Footer0" xfId="22" xr:uid="{3BA16116-3F6E-4AE2-A644-1BA14B266C98}"/>
+    <cellStyle name="Footer1" xfId="20" xr:uid="{8D038E27-229E-4DE3-955E-9D7EF372B46B}"/>
+    <cellStyle name="Footer2" xfId="21" xr:uid="{580000A1-4A14-4639-9419-DACAB51AB14F}"/>
+    <cellStyle name="Header" xfId="19" xr:uid="{00BBB5E9-BE45-4E8C-B0AF-F726C4A5C6F6}"/>
+    <cellStyle name="Holiday1_bottom" xfId="7" xr:uid="{45D9D395-C40D-4CF3-844D-6B3ACDFB6858}"/>
     <cellStyle name="Holiday1_Top" xfId="8" xr:uid="{E426D164-C0E7-4EFC-878C-2CD57BC930BF}"/>
     <cellStyle name="Holiday12_Bottom" xfId="12" xr:uid="{91996DAB-CD20-473C-BBC2-D07A658CFF87}"/>
-    <cellStyle name="Holiday12_Top" xfId="13" xr:uid="{FFBE049E-83D8-4C65-A7A7-B498C6FE388E}"/>
     <cellStyle name="Holiday2_bottom" xfId="11" xr:uid="{40D0AC72-371A-4EE0-9A98-A72D133D867E}"/>
     <cellStyle name="Holiday2_Top" xfId="9" xr:uid="{55D621F1-9EBF-4BBA-8E8D-18F40AC204E0}"/>
-    <cellStyle name="Holyday1_bottom" xfId="7" xr:uid="{45D9D395-C40D-4CF3-844D-6B3ACDFB6858}"/>
-    <cellStyle name="Milestone_Bottom" xfId="14" xr:uid="{D25A924F-3536-4CB6-82DF-FFDC63AD7F29}"/>
-    <cellStyle name="Milestone_Top" xfId="15" xr:uid="{CF8E5E8E-3131-4463-8D10-17E6DD6488B8}"/>
+    <cellStyle name="Milestone_Bottom" xfId="13" xr:uid="{D25A924F-3536-4CB6-82DF-FFDC63AD7F29}"/>
+    <cellStyle name="Milestone_Top" xfId="14" xr:uid="{CF8E5E8E-3131-4463-8D10-17E6DD6488B8}"/>
     <cellStyle name="Month" xfId="2" xr:uid="{A5050D36-CABE-437E-93D2-95C8D71FE582}"/>
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
-    <cellStyle name="Saturday" xfId="4" xr:uid="{D3ED9BFD-3801-40A0-926B-4BE17B540807}"/>
-    <cellStyle name="Sunday" xfId="5" xr:uid="{5637688D-8B73-4CBB-B158-A902681B74A3}"/>
+    <cellStyle name="Monthday" xfId="15" xr:uid="{5CBA9543-B823-436F-9540-357CC28CB285}"/>
+    <cellStyle name="MonthDaySat" xfId="4" xr:uid="{D3ED9BFD-3801-40A0-926B-4BE17B540807}"/>
+    <cellStyle name="MonthDaySun" xfId="5" xr:uid="{5637688D-8B73-4CBB-B158-A902681B74A3}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Sunday" xfId="23" xr:uid="{427C1A49-B6DD-4DC8-BAE5-F19A0FF2D23B}"/>
     <cellStyle name="Week" xfId="1" xr:uid="{475A2181-6AE6-4505-B189-EE36DAB335C0}"/>
     <cellStyle name="Weekday" xfId="3" xr:uid="{0E76E97A-365D-41F0-81F0-93A2D5B8A1FA}"/>
+    <cellStyle name="WeekDaySat" xfId="16" xr:uid="{63249CE3-CD08-4D41-BDCC-423F3A01F115}"/>
+    <cellStyle name="WeekDaySun" xfId="17" xr:uid="{20EC7F65-41F5-4A53-B09F-8C595E786F49}"/>
+    <cellStyle name="Year" xfId="18" xr:uid="{075E3028-06CC-42FA-9A70-63234DCC2C6B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFB583B5"/>
-      <color rgb="FFB2FF66"/>
+      <color rgb="FFB4C5E4"/>
+      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFFD5D5"/>
+      <color rgb="FFFFFFCC"/>
+      <color rgb="FF080A87"/>
+      <color rgb="FF474747"/>
+      <color rgb="FFADADAD"/>
+      <color rgb="FF3D52D5"/>
+      <color rgb="FFFBFFF1"/>
+      <color rgb="FFE00000"/>
     </mruColors>
   </colors>
   <extLst>
@@ -461,10 +641,74 @@
 </styleSheet>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+</richValueRels>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -502,7 +746,7 @@
         <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
@@ -608,7 +852,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -783,10 +1027,18 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" zoomScaleSheetLayoutView="130" workbookViewId="0"/>
+    <sheetView topLeftCell="A25" zoomScale="25" zoomScaleNormal="25" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="BC44" sqref="BC44"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="25.8" x14ac:dyDescent="0.5"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A1" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="141" orientation="landscape" r:id="rId1"/>
@@ -795,193 +1047,292 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19DF5E8D-19E1-4223-9D65-0B9FBC8DEB96}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="25.8" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.640625" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.703125" customWidth="1"/>
+    <col min="2" max="2" width="59.1171875" customWidth="1"/>
+    <col min="3" max="3" width="9.1171875" customWidth="1"/>
+    <col min="4" max="4" width="16.9375" customWidth="1"/>
+    <col min="5" max="6" width="9.1171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="79.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="46.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" s="12">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="103.8" x14ac:dyDescent="0.5">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="16">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="43.2" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="103.8" x14ac:dyDescent="0.5">
+      <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1">
-        <v>5.36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="B5" s="2">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="103.8" x14ac:dyDescent="0.5">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="13">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="46.8" thickBot="1" x14ac:dyDescent="0.95">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="298.8" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="18">
+        <v>2024</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="131.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="47.4" x14ac:dyDescent="0.9">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="47.4" x14ac:dyDescent="0.5">
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="47.4" x14ac:dyDescent="0.9">
+      <c r="A13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A25" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B25" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A28" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2">
-        <v>17.36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3">
-        <v>5.36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="B28" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A29" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A32" s="10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="27" thickTop="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A21" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A24" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A25" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>18</v>
+      <c r="B32" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A33" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>